--- a/biology/Zoologie/Bathyraja_aleutica/Bathyraja_aleutica.xlsx
+++ b/biology/Zoologie/Bathyraja_aleutica/Bathyraja_aleutica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathyraja aleutica est une espèce de raies de la famille des Arhynchobatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bathyraja aleutica est une raie dont la taille peut atteindre 161 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bathyraja aleutica est une raie dont la taille peut atteindre 161 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bathyraja aleutica se rencontre au Canada, aux États-Unis, au Japon et en Russie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bathyraja aleutica se rencontre au Canada, aux États-Unis, au Japon et en Russie.
 </t>
         </is>
       </c>
@@ -573,15 +589,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Bathyraja aleutica (Gilbert, 1896)[3].
-Étymologie
-Son épithète spécifique, aleutica, fait référence à sa localité type, les îles Aléoutiennes (et plus précisément l'île Sanak en Alaska)[4].
-Synonymie
-L'espèce a été initialement classée dans le genre Raja sous le protonyme Raja aleutica Gilbert, 1896[3]. Bathyraja aleutica a pour synonymes[3] :
-Breviraja aleutica (Gilbert, 1896)
-Raja aleutica Gilbert, 1896</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bathyraja aleutica (Gilbert, 1896).
+</t>
         </is>
       </c>
     </row>
@@ -606,10 +619,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, aleutica, fait référence à sa localité type, les îles Aléoutiennes (et plus précisément l'île Sanak en Alaska).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bathyraja_aleutica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja_aleutica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Raja sous le protonyme Raja aleutica Gilbert, 1896. Bathyraja aleutica a pour synonymes :
+Breviraja aleutica (Gilbert, 1896)
+Raja aleutica Gilbert, 1896</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bathyraja_aleutica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bathyraja_aleutica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) C.H. Gilbert, « The ichthyological collections of the steamer Albatross during the years 1890 and 1891 », United States Commission of Fish and Fisheries, Report of the Commissioner, États-Unis, vol. 19, no 6,‎ 1896, p. 393-476.</t>
         </is>
